--- a/info_excel_week.xlsx
+++ b/info_excel_week.xlsx
@@ -429,82 +429,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
       <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>211416</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2">
-        <v>211416</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="G3">
+      <c r="F3">
         <v>450000</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/info_excel_week.xlsx
+++ b/info_excel_week.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Address</t>
   </si>
@@ -34,31 +34,19 @@
     <t>Price per square meter</t>
   </si>
   <si>
-    <t>Особняк в Селивёрстовом переулке, 4</t>
-  </si>
-  <si>
-    <t>Особняк на Трубной, 25с1</t>
-  </si>
-  <si>
-    <t>https://osobnyaki.com//v-selivyorstovom-pereulke-4</t>
-  </si>
-  <si>
-    <t>https://osobnyaki.com//na-trubnoy-25s1</t>
-  </si>
-  <si>
-    <t>2021-12-13</t>
-  </si>
-  <si>
-    <t>1419</t>
-  </si>
-  <si>
-    <t>1400</t>
-  </si>
-  <si>
-    <t>300000000</t>
-  </si>
-  <si>
-    <t>630000000</t>
+    <t>Особняк на Александрова, 18</t>
+  </si>
+  <si>
+    <t>https://osobnyaki.com//na-nikoloyamskoy-49s2</t>
+  </si>
+  <si>
+    <t>2021-12-16</t>
+  </si>
+  <si>
+    <t>1788</t>
+  </si>
+  <si>
+    <t>60067867890</t>
   </si>
 </sst>
 </file>
@@ -429,7 +417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -460,45 +448,24 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
       <c r="F2">
-        <v>211416</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3">
-        <v>450000</v>
+        <v>54152</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
